--- a/spliced/falling/2023-03-25_17-56-13/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-13/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.0116064397990704</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.002003637989982902</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.01257160693407047</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.01087340146303169</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-56-13/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-13/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2413406467437743</v>
+        <v>-0.05018257871270176</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8782348728179935</v>
+        <v>0.03831957608461375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2379259061813353</v>
+        <v>-0.02618168391287326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3042353224754335</v>
+        <v>-0.0003359749913214444</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7414865946769711</v>
+        <v>0.002840522676706245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07860002636909467</v>
+        <v>0.01902845310978596</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5218927025794975</v>
+        <v>0.0197737082280218</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.713765501976017</v>
+        <v>0.003915645778179187</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0360715866088889</v>
+        <v>0.0108062067255378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.3036916565895085</v>
+        <v>0.006835582219064174</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.991817789077758</v>
+        <v>0.01575421430170528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7189944821596139</v>
+        <v>-0.01602910399436943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.3264341640472403</v>
+        <v>0.009694431573152461</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7089091062545771</v>
+        <v>0.04360967107117174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2337964496016506</v>
+        <v>-0.02225992940366261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.141985282897944</v>
+        <v>-0.006389650218188861</v>
       </c>
       <c r="B7" t="n">
-        <v>1.788967720866199</v>
+        <v>0.1472857224941257</v>
       </c>
       <c r="C7" t="n">
-        <v>1.509380774497982</v>
+        <v>-0.09550878420472185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9800599706172932</v>
+        <v>-0.0494189966470003</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1253434419631962</v>
+        <v>0.3487124174833299</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5464250743389123</v>
+        <v>-0.1236696735024451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0736092627048492</v>
+        <v>-0.1319224560260773</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5642867684364319</v>
+        <v>0.6216225624084474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1644754707813263</v>
+        <v>0.00195476904511456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.06891781449317926</v>
+        <v>-0.2252138006687165</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3265013670921365</v>
+        <v>0.7861163711547852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1562654364109038</v>
+        <v>0.1145494534075265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1324722367525109</v>
+        <v>-0.2413406467437743</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3363607311248777</v>
+        <v>0.8782348728179935</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4570737850666071</v>
+        <v>0.2379259061813353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.01224173843860671</v>
+        <v>-0.3042353224754335</v>
       </c>
       <c r="B12" t="n">
-        <v>0.501917414665225</v>
+        <v>0.7414865946769711</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1441641956567751</v>
+        <v>0.07860002636909467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1344208937883378</v>
+        <v>-0.5218927025794975</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3849489307403577</v>
+        <v>-0.713765501976017</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01353066369891175</v>
+        <v>0.0360715866088889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1894598573446278</v>
+        <v>-0.3036916565895085</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1872607469558727</v>
+        <v>-1.991817789077758</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08878926560282711</v>
+        <v>0.7189944821596139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.07626041717827303</v>
+        <v>-0.3264341640472403</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2385795354843139</v>
+        <v>-0.7089091062545771</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02856405675411225</v>
+        <v>0.2337964496016506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0480750934034587</v>
+        <v>3.141985282897944</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01500285148620528</v>
+        <v>1.788967720866199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03880215823650406</v>
+        <v>1.509380774497982</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.000274888500570912</v>
+        <v>0.9800599706172932</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1048794555664065</v>
+        <v>0.1253434419631962</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01421483285725082</v>
+        <v>-0.5464250743389123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.01692707635462273</v>
+        <v>-0.0736092627048492</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1128940057754516</v>
+        <v>0.5642867684364319</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08684671215713051</v>
+        <v>0.1644754707813263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0168904237449169</v>
+        <v>-0.06891781449317926</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1212872922420503</v>
+        <v>-0.3265013670921365</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0470977105200284</v>
+        <v>0.1562654364109038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.00600480515509842</v>
+        <v>0.1324722367525109</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.05129435338079914</v>
+        <v>-0.3363607311248777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00926071695983402</v>
+        <v>-0.4570737850666071</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.01224173843860671</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.501917414665225</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1441641956567751</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1344208937883378</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3849489307403577</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01353066369891175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1894598573446278</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1872607469558727</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08878926560282711</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.07626041717827303</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2385795354843139</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.02856405675411225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0480750934034587</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01500285148620528</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03880215823650406</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.000274888500570912</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.1048794555664065</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01421483285725082</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.01692707635462273</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1128940057754516</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.08684671215713051</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0168904237449169</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1212872922420503</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0470977105200284</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.00600480515509842</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.05129435338079914</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00926071695983402</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.004129448952153255</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>-0.005827654600143463</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-0.0116064397990704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.002003637989982902</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.01257160693407047</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.01087340146303169</v>
       </c>
     </row>
   </sheetData>
